--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H2">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I2">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J2">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>55.923528107</v>
+        <v>247.959895574268</v>
       </c>
       <c r="R2">
-        <v>335.541168642</v>
+        <v>1487.759373445608</v>
       </c>
       <c r="S2">
-        <v>0.003139714939597923</v>
+        <v>0.005778294205593558</v>
       </c>
       <c r="T2">
-        <v>0.002309424714547675</v>
+        <v>0.004013632917158473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H3">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I3">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J3">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>0.018187512</v>
+        <v>0.442995062667</v>
       </c>
       <c r="R3">
-        <v>0.072750048</v>
+        <v>1.771980250668</v>
       </c>
       <c r="S3">
-        <v>1.021101584135726E-06</v>
+        <v>1.032326537235774E-05</v>
       </c>
       <c r="T3">
-        <v>5.007157825541995E-07</v>
+        <v>4.780395532756375E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H4">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I4">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J4">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>0.057266045</v>
+        <v>212.960600564973</v>
       </c>
       <c r="R4">
-        <v>0.34359627</v>
+        <v>1277.763603389838</v>
       </c>
       <c r="S4">
-        <v>3.215087872749597E-06</v>
+        <v>0.004962693670338874</v>
       </c>
       <c r="T4">
-        <v>2.364865452951371E-06</v>
+        <v>0.003447112584500194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H5">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I5">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J5">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>39.2842691451</v>
+        <v>168.850819774272</v>
       </c>
       <c r="R5">
-        <v>235.7056148706</v>
+        <v>1013.104918645632</v>
       </c>
       <c r="S5">
-        <v>0.002205536934115883</v>
+        <v>0.003934788370723319</v>
       </c>
       <c r="T5">
-        <v>0.001622287883608698</v>
+        <v>0.002733124269009975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>66.818806</v>
       </c>
       <c r="I6">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J6">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>2799.687851515082</v>
+        <v>4043.790481974888</v>
       </c>
       <c r="R6">
-        <v>25197.19066363574</v>
+        <v>36394.11433777399</v>
       </c>
       <c r="S6">
-        <v>0.1571828901208476</v>
+        <v>0.09423383187234534</v>
       </c>
       <c r="T6">
-        <v>0.173424367243163</v>
+        <v>0.09818295747558885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>66.818806</v>
       </c>
       <c r="I7">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J7">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>0.9105175964266666</v>
+        <v>7.224471577655334</v>
       </c>
       <c r="R7">
-        <v>5.46310557856</v>
+        <v>43.346829465932</v>
       </c>
       <c r="S7">
-        <v>5.111919431831704E-05</v>
+        <v>0.0001683543306830351</v>
       </c>
       <c r="T7">
-        <v>3.760084371277505E-05</v>
+        <v>0.0001169397852261491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>66.818806</v>
       </c>
       <c r="I8">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J8">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>2.866897992988889</v>
+        <v>3473.013438749252</v>
       </c>
       <c r="R8">
-        <v>25.8020819369</v>
+        <v>31257.12094874326</v>
       </c>
       <c r="S8">
-        <v>0.0001609562694554642</v>
+        <v>0.08093281932788458</v>
       </c>
       <c r="T8">
-        <v>0.0001775876443210382</v>
+        <v>0.08432452974228648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>66.818806</v>
       </c>
       <c r="I9">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J9">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>1966.680122018598</v>
+        <v>2753.660370341419</v>
       </c>
       <c r="R9">
-        <v>17700.12109816738</v>
+        <v>24782.94333307277</v>
       </c>
       <c r="S9">
-        <v>0.1104153326788971</v>
+        <v>0.06416948888152235</v>
       </c>
       <c r="T9">
-        <v>0.1218243867959094</v>
+        <v>0.06685868623722745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H10">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I10">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J10">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>2225.895651358008</v>
+        <v>6639.740482909944</v>
       </c>
       <c r="R10">
-        <v>20033.06086222208</v>
+        <v>59757.66434618949</v>
       </c>
       <c r="S10">
-        <v>0.1249684715381899</v>
+        <v>0.1547281421061583</v>
       </c>
       <c r="T10">
-        <v>0.1378812801138417</v>
+        <v>0.1612124466854466</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H11">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I11">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J11">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>0.7239082590133334</v>
+        <v>11.86229024861933</v>
       </c>
       <c r="R11">
-        <v>4.343449554080001</v>
+        <v>71.173741491716</v>
       </c>
       <c r="S11">
-        <v>4.064238528323447E-05</v>
+        <v>0.0002764310044974031</v>
       </c>
       <c r="T11">
-        <v>2.989460216515398E-05</v>
+        <v>0.000192010399522395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H12">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I12">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J12">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>2.279331166161112</v>
+        <v>5702.547654173169</v>
       </c>
       <c r="R12">
-        <v>20.51398049545</v>
+        <v>51322.92888755851</v>
       </c>
       <c r="S12">
-        <v>0.0001279685019334719</v>
+        <v>0.132888417261656</v>
       </c>
       <c r="T12">
-        <v>0.0001411912992425906</v>
+        <v>0.1384574686368927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H13">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I13">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J13">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>1563.611717943639</v>
+        <v>4521.398998944043</v>
       </c>
       <c r="R13">
-        <v>14072.50546149275</v>
+        <v>40692.59099049639</v>
       </c>
       <c r="S13">
-        <v>0.08778586109883718</v>
+        <v>0.1053637064020691</v>
       </c>
       <c r="T13">
-        <v>0.09685664516193294</v>
+        <v>0.1097792597371888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H14">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I14">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J14">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>2879.369598284254</v>
+        <v>1777.975123139046</v>
       </c>
       <c r="R14">
-        <v>17276.21758970552</v>
+        <v>10667.85073883428</v>
       </c>
       <c r="S14">
-        <v>0.1616564628587077</v>
+        <v>0.04143276205182429</v>
       </c>
       <c r="T14">
-        <v>0.118906791786667</v>
+        <v>0.02877940992672493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H15">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I15">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J15">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.9364317827199999</v>
+        <v>3.1764580287115</v>
       </c>
       <c r="R15">
-        <v>3.74572713088</v>
+        <v>12.705832114846</v>
       </c>
       <c r="S15">
-        <v>5.257409461890302E-05</v>
+        <v>7.402208723756026E-05</v>
       </c>
       <c r="T15">
-        <v>2.578066603575403E-05</v>
+        <v>3.427741537122945E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H16">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I16">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J16">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>2.948492603533333</v>
+        <v>1527.015685888869</v>
       </c>
       <c r="R16">
-        <v>17.6909556212</v>
+        <v>9162.094115333211</v>
       </c>
       <c r="S16">
-        <v>0.0001655372361145581</v>
+        <v>0.03558456850123704</v>
       </c>
       <c r="T16">
-        <v>0.000121761303690147</v>
+        <v>0.024717224564507</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H17">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I17">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J17">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N17">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O17">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P17">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q17">
-        <v>2022.653686133556</v>
+        <v>1210.730293239584</v>
       </c>
       <c r="R17">
-        <v>12135.92211680134</v>
+        <v>7264.381759437505</v>
       </c>
       <c r="S17">
-        <v>0.1135578567903592</v>
+        <v>0.02821406188190411</v>
       </c>
       <c r="T17">
-        <v>0.08352774887146464</v>
+        <v>0.01959763270384121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H18">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I18">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J18">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N18">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O18">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P18">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q18">
-        <v>81.82784934626</v>
+        <v>1121.547720360528</v>
       </c>
       <c r="R18">
-        <v>736.4506441163401</v>
+        <v>10093.92948324475</v>
       </c>
       <c r="S18">
-        <v>0.004594061386399945</v>
+        <v>0.02613580990122191</v>
       </c>
       <c r="T18">
-        <v>0.005068759000423718</v>
+        <v>0.02723110226057582</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H19">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I19">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J19">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N19">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O19">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P19">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q19">
-        <v>0.02661214416</v>
+        <v>2.003711533732</v>
       </c>
       <c r="R19">
-        <v>0.15967286496</v>
+        <v>12.022269202392</v>
       </c>
       <c r="S19">
-        <v>1.494085752851974E-06</v>
+        <v>4.669317479034344E-05</v>
       </c>
       <c r="T19">
-        <v>1.098978292510782E-06</v>
+        <v>3.243331970942894E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H20">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I20">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J20">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N20">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O20">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P20">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q20">
-        <v>0.0837922331</v>
+        <v>963.2423644037082</v>
       </c>
       <c r="R20">
-        <v>0.7541300979</v>
+        <v>8669.181279633372</v>
       </c>
       <c r="S20">
-        <v>4.704347794062213E-06</v>
+        <v>0.02244676607854559</v>
       </c>
       <c r="T20">
-        <v>5.19044114057043E-06</v>
+        <v>0.02338745900028612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H21">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I21">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J21">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N21">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O21">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P21">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q21">
-        <v>57.481124065218</v>
+        <v>763.7293585733121</v>
       </c>
       <c r="R21">
-        <v>517.3301165869619</v>
+        <v>6873.564227159809</v>
       </c>
       <c r="S21">
-        <v>0.003227163057866096</v>
+        <v>0.01779744630503796</v>
       </c>
       <c r="T21">
-        <v>0.003560621075682258</v>
+        <v>0.01854329680776174</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H22">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I22">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J22">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N22">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O22">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P22">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q22">
-        <v>2411.291763013608</v>
+        <v>3052.972093031568</v>
       </c>
       <c r="R22">
-        <v>21701.62586712247</v>
+        <v>27476.74883728411</v>
       </c>
       <c r="S22">
-        <v>0.1353771664330241</v>
+        <v>0.07114445226776357</v>
       </c>
       <c r="T22">
-        <v>0.1493654901609781</v>
+        <v>0.07412595447771257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H23">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I23">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J23">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N23">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O23">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P23">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q23">
-        <v>0.7842029886133332</v>
+        <v>5.454315749492</v>
       </c>
       <c r="R23">
-        <v>4.705217931679999</v>
+        <v>32.72589449695199</v>
       </c>
       <c r="S23">
-        <v>4.402751261178798E-05</v>
+        <v>0.0001271037843348647</v>
       </c>
       <c r="T23">
-        <v>3.238454054008601E-05</v>
+        <v>8.828694326571083E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H24">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I24">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J24">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N24">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O24">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P24">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q24">
-        <v>2.469177952161111</v>
+        <v>2622.048089407148</v>
       </c>
       <c r="R24">
-        <v>22.22260156945</v>
+        <v>23598.43280466433</v>
       </c>
       <c r="S24">
-        <v>0.0001386270710619857</v>
+        <v>0.06110248291047142</v>
       </c>
       <c r="T24">
-        <v>0.0001529512026608881</v>
+        <v>0.06366314902039225</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H25">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I25">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J25">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N25">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O25">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P25">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q25">
-        <v>1693.845825040719</v>
+        <v>2078.952483273472</v>
       </c>
       <c r="R25">
-        <v>15244.61242536647</v>
+        <v>18710.57234946125</v>
       </c>
       <c r="S25">
-        <v>0.09509759527475577</v>
+        <v>0.04844654035678692</v>
       </c>
       <c r="T25">
-        <v>0.1049238900887439</v>
+        <v>0.05047682469427128</v>
       </c>
     </row>
   </sheetData>
